--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55563983218808</v>
+        <v>1.71602</v>
       </c>
       <c r="H2">
-        <v>1.55563983218808</v>
+        <v>5.14806</v>
       </c>
       <c r="I2">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376332</v>
       </c>
       <c r="J2">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376331</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N2">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q2">
-        <v>6.720615640381634</v>
+        <v>7.9996133345</v>
       </c>
       <c r="R2">
-        <v>6.720615640381634</v>
+        <v>71.99652001050001</v>
       </c>
       <c r="S2">
-        <v>0.002799754088340206</v>
+        <v>0.003115326463471678</v>
       </c>
       <c r="T2">
-        <v>0.002799754088340206</v>
+        <v>0.003115326463471678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55563983218808</v>
+        <v>1.71602</v>
       </c>
       <c r="H3">
-        <v>1.55563983218808</v>
+        <v>5.14806</v>
       </c>
       <c r="I3">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376332</v>
       </c>
       <c r="J3">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376331</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N3">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q3">
-        <v>121.0305370616965</v>
+        <v>133.5338369162867</v>
       </c>
       <c r="R3">
-        <v>121.0305370616965</v>
+        <v>1201.80453224658</v>
       </c>
       <c r="S3">
-        <v>0.05042034228478116</v>
+        <v>0.05200270044554853</v>
       </c>
       <c r="T3">
-        <v>0.05042034228478116</v>
+        <v>0.05200270044554853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.55563983218808</v>
+        <v>1.71602</v>
       </c>
       <c r="H4">
-        <v>1.55563983218808</v>
+        <v>5.14806</v>
       </c>
       <c r="I4">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376332</v>
       </c>
       <c r="J4">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376331</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N4">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q4">
-        <v>0.7959412738311569</v>
+        <v>0.9009019199</v>
       </c>
       <c r="R4">
-        <v>0.7959412738311569</v>
+        <v>8.1081172791</v>
       </c>
       <c r="S4">
-        <v>0.0003315826934213648</v>
+        <v>0.0003508424063389226</v>
       </c>
       <c r="T4">
-        <v>0.0003315826934213648</v>
+        <v>0.0003508424063389226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.55563983218808</v>
+        <v>1.71602</v>
       </c>
       <c r="H5">
-        <v>1.55563983218808</v>
+        <v>5.14806</v>
       </c>
       <c r="I5">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376332</v>
       </c>
       <c r="J5">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376331</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N5">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O5">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P5">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q5">
-        <v>0.6910669877488177</v>
+        <v>0.8476200709066667</v>
       </c>
       <c r="R5">
-        <v>0.6910669877488177</v>
+        <v>7.62858063816</v>
       </c>
       <c r="S5">
-        <v>0.0002878929145480538</v>
+        <v>0.0003300926091611308</v>
       </c>
       <c r="T5">
-        <v>0.0002878929145480538</v>
+        <v>0.0003300926091611308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.55563983218808</v>
+        <v>1.71602</v>
       </c>
       <c r="H6">
-        <v>1.55563983218808</v>
+        <v>5.14806</v>
       </c>
       <c r="I6">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376332</v>
       </c>
       <c r="J6">
-        <v>0.05793350556257668</v>
+        <v>0.06034608498376331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N6">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q6">
-        <v>9.827203815149655</v>
+        <v>11.67621650085333</v>
       </c>
       <c r="R6">
-        <v>9.827203815149655</v>
+        <v>105.08594850768</v>
       </c>
       <c r="S6">
-        <v>0.004093933581485897</v>
+        <v>0.004547123059243042</v>
       </c>
       <c r="T6">
-        <v>0.004093933581485897</v>
+        <v>0.004547123059243041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0420366123611</v>
+        <v>18.10943933333333</v>
       </c>
       <c r="H7">
-        <v>18.0420366123611</v>
+        <v>54.328318</v>
       </c>
       <c r="I7">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="J7">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N7">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q7">
-        <v>77.94451577575205</v>
+        <v>84.42122607618332</v>
       </c>
       <c r="R7">
-        <v>77.94451577575205</v>
+        <v>759.7910346856499</v>
       </c>
       <c r="S7">
-        <v>0.03247105449620199</v>
+        <v>0.03287654898763898</v>
       </c>
       <c r="T7">
-        <v>0.03247105449620199</v>
+        <v>0.03287654898763898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0420366123611</v>
+        <v>18.10943933333333</v>
       </c>
       <c r="H8">
-        <v>18.0420366123611</v>
+        <v>54.328318</v>
       </c>
       <c r="I8">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="J8">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N8">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q8">
-        <v>1403.690838778195</v>
+        <v>1409.204390731297</v>
       </c>
       <c r="R8">
-        <v>1403.690838778195</v>
+        <v>12682.83951658167</v>
       </c>
       <c r="S8">
-        <v>0.5847662438871115</v>
+        <v>0.5487929912752575</v>
       </c>
       <c r="T8">
-        <v>0.5847662438871115</v>
+        <v>0.5487929912752576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0420366123611</v>
+        <v>18.10943933333333</v>
       </c>
       <c r="H9">
-        <v>18.0420366123611</v>
+        <v>54.328318</v>
       </c>
       <c r="I9">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="J9">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N9">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q9">
-        <v>9.231186619561218</v>
+        <v>9.507365102803332</v>
       </c>
       <c r="R9">
-        <v>9.231186619561218</v>
+        <v>85.56628592522999</v>
       </c>
       <c r="S9">
-        <v>0.003845637641149242</v>
+        <v>0.003702497216323469</v>
       </c>
       <c r="T9">
-        <v>0.003845637641149242</v>
+        <v>0.00370249721632347</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.0420366123611</v>
+        <v>18.10943933333333</v>
       </c>
       <c r="H10">
-        <v>18.0420366123611</v>
+        <v>54.328318</v>
       </c>
       <c r="I10">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="J10">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N10">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O10">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P10">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q10">
-        <v>8.014873132311791</v>
+        <v>8.94507304798311</v>
       </c>
       <c r="R10">
-        <v>8.014873132311791</v>
+        <v>80.50565743184799</v>
       </c>
       <c r="S10">
-        <v>0.0033389312855338</v>
+        <v>0.003483521217692805</v>
       </c>
       <c r="T10">
-        <v>0.0033389312855338</v>
+        <v>0.003483521217692806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.0420366123611</v>
+        <v>18.10943933333333</v>
       </c>
       <c r="H11">
-        <v>18.0420366123611</v>
+        <v>54.328318</v>
       </c>
       <c r="I11">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="J11">
-        <v>0.6719025874853417</v>
+        <v>0.6368420910115495</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N11">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q11">
-        <v>113.9741779308133</v>
+        <v>123.2210197812782</v>
       </c>
       <c r="R11">
-        <v>113.9741779308133</v>
+        <v>1108.989178031504</v>
       </c>
       <c r="S11">
-        <v>0.04748072017534517</v>
+        <v>0.04798653231463673</v>
       </c>
       <c r="T11">
-        <v>0.04748072017534517</v>
+        <v>0.04798653231463673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.33589806261216</v>
+        <v>0.3579073333333334</v>
       </c>
       <c r="H12">
-        <v>0.33589806261216</v>
+        <v>1.073722</v>
       </c>
       <c r="I12">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="J12">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N12">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q12">
-        <v>1.451133949167382</v>
+        <v>1.668465563483333</v>
       </c>
       <c r="R12">
-        <v>1.451133949167382</v>
+        <v>15.01619007135</v>
       </c>
       <c r="S12">
-        <v>0.0006045306597358002</v>
+        <v>0.0006497582703021598</v>
       </c>
       <c r="T12">
-        <v>0.0006045306597358002</v>
+        <v>0.0006497582703021599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.33589806261216</v>
+        <v>0.3579073333333334</v>
       </c>
       <c r="H13">
-        <v>0.33589806261216</v>
+        <v>1.073722</v>
       </c>
       <c r="I13">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="J13">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N13">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q13">
-        <v>26.13324888881989</v>
+        <v>27.85092218067178</v>
       </c>
       <c r="R13">
-        <v>26.13324888881989</v>
+        <v>250.658299626046</v>
       </c>
       <c r="S13">
-        <v>0.01088690000041883</v>
+        <v>0.01084611358993393</v>
       </c>
       <c r="T13">
-        <v>0.01088690000041883</v>
+        <v>0.01084611358993393</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.33589806261216</v>
+        <v>0.3579073333333334</v>
       </c>
       <c r="H14">
-        <v>0.33589806261216</v>
+        <v>1.073722</v>
       </c>
       <c r="I14">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="J14">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N14">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q14">
-        <v>0.1718618450756001</v>
+        <v>0.1878995604633333</v>
       </c>
       <c r="R14">
-        <v>0.1718618450756001</v>
+        <v>1.69109604417</v>
       </c>
       <c r="S14">
-        <v>7.159625384450329E-05</v>
+        <v>7.317459590972922E-05</v>
       </c>
       <c r="T14">
-        <v>7.159625384450329E-05</v>
+        <v>7.317459590972922E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.33589806261216</v>
+        <v>0.3579073333333334</v>
       </c>
       <c r="H15">
-        <v>0.33589806261216</v>
+        <v>1.073722</v>
       </c>
       <c r="I15">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="J15">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N15">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O15">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P15">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q15">
-        <v>0.1492170986606522</v>
+        <v>0.1767866570657778</v>
       </c>
       <c r="R15">
-        <v>0.1492170986606522</v>
+        <v>1.591079913592</v>
       </c>
       <c r="S15">
-        <v>6.216263574354649E-05</v>
+        <v>6.884684648075346E-05</v>
       </c>
       <c r="T15">
-        <v>6.216263574354649E-05</v>
+        <v>6.884684648075348E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.33589806261216</v>
+        <v>0.3579073333333334</v>
       </c>
       <c r="H16">
-        <v>0.33589806261216</v>
+        <v>1.073722</v>
       </c>
       <c r="I16">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="J16">
-        <v>0.01250916303128421</v>
+        <v>0.01258627892078498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N16">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O16">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P16">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q16">
-        <v>2.1219170749573</v>
+        <v>2.435288348179556</v>
       </c>
       <c r="R16">
-        <v>2.1219170749573</v>
+        <v>21.917595133616</v>
       </c>
       <c r="S16">
-        <v>0.0008839734815415273</v>
+        <v>0.0009483856181584047</v>
       </c>
       <c r="T16">
-        <v>0.0008839734815415273</v>
+        <v>0.0009483856181584047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.241675722251661</v>
+        <v>0.2609276666666667</v>
       </c>
       <c r="H17">
-        <v>0.241675722251661</v>
+        <v>0.782783</v>
       </c>
       <c r="I17">
-        <v>0.009000233543591583</v>
+        <v>0.0091758622552661</v>
       </c>
       <c r="J17">
-        <v>0.009000233543591583</v>
+        <v>0.009175862255266098</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N17">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O17">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P17">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q17">
-        <v>1.044078201945057</v>
+        <v>1.216373026891667</v>
       </c>
       <c r="R17">
-        <v>1.044078201945057</v>
+        <v>10.947357242025</v>
       </c>
       <c r="S17">
-        <v>0.0004349545295937458</v>
+        <v>0.0004736977803397301</v>
       </c>
       <c r="T17">
-        <v>0.0004349545295937458</v>
+        <v>0.00047369778033973</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.241675722251661</v>
+        <v>0.2609276666666667</v>
       </c>
       <c r="H18">
-        <v>0.241675722251661</v>
+        <v>0.782783</v>
       </c>
       <c r="I18">
-        <v>0.009000233543591583</v>
+        <v>0.0091758622552661</v>
       </c>
       <c r="J18">
-        <v>0.009000233543591583</v>
+        <v>0.009175862255266098</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N18">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O18">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P18">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q18">
-        <v>18.80264432272234</v>
+        <v>20.30435104929655</v>
       </c>
       <c r="R18">
-        <v>18.80264432272234</v>
+        <v>182.739159443669</v>
       </c>
       <c r="S18">
-        <v>0.007833029462038879</v>
+        <v>0.007907217449460149</v>
       </c>
       <c r="T18">
-        <v>0.007833029462038879</v>
+        <v>0.007907217449460149</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.241675722251661</v>
+        <v>0.2609276666666667</v>
       </c>
       <c r="H19">
-        <v>0.241675722251661</v>
+        <v>0.782783</v>
       </c>
       <c r="I19">
-        <v>0.009000233543591583</v>
+        <v>0.0091758622552661</v>
       </c>
       <c r="J19">
-        <v>0.009000233543591583</v>
+        <v>0.009175862255266098</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N19">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O19">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P19">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q19">
-        <v>0.1236530964577379</v>
+        <v>0.1369857203616667</v>
       </c>
       <c r="R19">
-        <v>0.1236530964577379</v>
+        <v>1.232871483255</v>
       </c>
       <c r="S19">
-        <v>5.151287930577423E-05</v>
+        <v>5.334698339980514E-05</v>
       </c>
       <c r="T19">
-        <v>5.151287930577423E-05</v>
+        <v>5.334698339980513E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.241675722251661</v>
+        <v>0.2609276666666667</v>
       </c>
       <c r="H20">
-        <v>0.241675722251661</v>
+        <v>0.782783</v>
       </c>
       <c r="I20">
-        <v>0.009000233543591583</v>
+        <v>0.0091758622552661</v>
       </c>
       <c r="J20">
-        <v>0.009000233543591583</v>
+        <v>0.009175862255266098</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N20">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O20">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P20">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q20">
-        <v>0.1073603991957201</v>
+        <v>0.1288840032875556</v>
       </c>
       <c r="R20">
-        <v>0.1073603991957201</v>
+        <v>1.159956029588</v>
       </c>
       <c r="S20">
-        <v>4.47254734771568E-05</v>
+        <v>5.019189420422012E-05</v>
       </c>
       <c r="T20">
-        <v>4.47254734771568E-05</v>
+        <v>5.019189420422012E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.241675722251661</v>
+        <v>0.2609276666666667</v>
       </c>
       <c r="H21">
-        <v>0.241675722251661</v>
+        <v>0.782783</v>
       </c>
       <c r="I21">
-        <v>0.009000233543591583</v>
+        <v>0.0091758622552661</v>
       </c>
       <c r="J21">
-        <v>0.009000233543591583</v>
+        <v>0.009175862255266098</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N21">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O21">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P21">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q21">
-        <v>1.526700802203057</v>
+        <v>1.775415162447111</v>
       </c>
       <c r="R21">
-        <v>1.526700802203057</v>
+        <v>15.978736462024</v>
       </c>
       <c r="S21">
-        <v>0.0006360111991760266</v>
+        <v>0.0006914081478621939</v>
       </c>
       <c r="T21">
-        <v>0.0006360111991760266</v>
+        <v>0.0006914081478621938</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.67691100408531</v>
+        <v>7.992016</v>
       </c>
       <c r="H22">
-        <v>6.67691100408531</v>
+        <v>23.976048</v>
       </c>
       <c r="I22">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="J22">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N22">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O22">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P22">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q22">
-        <v>28.84533527299573</v>
+        <v>37.25658078759999</v>
       </c>
       <c r="R22">
-        <v>28.84533527299573</v>
+        <v>335.3092270884</v>
       </c>
       <c r="S22">
-        <v>0.01201673324016008</v>
+        <v>0.01450900277461164</v>
       </c>
       <c r="T22">
-        <v>0.01201673324016008</v>
+        <v>0.01450900277461164</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.67691100408531</v>
+        <v>7.992016</v>
       </c>
       <c r="H23">
-        <v>6.67691100408531</v>
+        <v>23.976048</v>
       </c>
       <c r="I23">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="J23">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N23">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O23">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P23">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q23">
-        <v>519.4712220764828</v>
+        <v>621.9068316082293</v>
       </c>
       <c r="R23">
-        <v>519.4712220764828</v>
+        <v>5597.161484474063</v>
       </c>
       <c r="S23">
-        <v>0.2164075072296691</v>
+        <v>0.2421920572044795</v>
       </c>
       <c r="T23">
-        <v>0.2164075072296691</v>
+        <v>0.2421920572044796</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.67691100408531</v>
+        <v>7.992016</v>
       </c>
       <c r="H24">
-        <v>6.67691100408531</v>
+        <v>23.976048</v>
       </c>
       <c r="I24">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="J24">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N24">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O24">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P24">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q24">
-        <v>3.416233590762419</v>
+        <v>4.195768439919999</v>
       </c>
       <c r="R24">
-        <v>3.416233590762419</v>
+        <v>37.76191595928</v>
       </c>
       <c r="S24">
-        <v>0.001423175267603771</v>
+        <v>0.001633977532277695</v>
       </c>
       <c r="T24">
-        <v>0.001423175267603771</v>
+        <v>0.001633977532277695</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.67691100408531</v>
+        <v>7.992016</v>
       </c>
       <c r="H25">
-        <v>6.67691100408531</v>
+        <v>23.976048</v>
       </c>
       <c r="I25">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="J25">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N25">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O25">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P25">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q25">
-        <v>2.966106086760514</v>
+        <v>3.947619007125333</v>
       </c>
       <c r="R25">
-        <v>2.966106086760514</v>
+        <v>35.52857106412799</v>
       </c>
       <c r="S25">
-        <v>0.001235655792151052</v>
+        <v>0.001537339549595869</v>
       </c>
       <c r="T25">
-        <v>0.001235655792151052</v>
+        <v>0.001537339549595869</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.67691100408531</v>
+        <v>7.992016</v>
       </c>
       <c r="H26">
-        <v>6.67691100408531</v>
+        <v>23.976048</v>
       </c>
       <c r="I26">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="J26">
-        <v>0.2486545103772059</v>
+        <v>0.2810496828286361</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N26">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O26">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P26">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q26">
-        <v>42.17902109157928</v>
+        <v>54.37961625988266</v>
       </c>
       <c r="R26">
-        <v>42.17902109157928</v>
+        <v>489.4165463389439</v>
       </c>
       <c r="S26">
-        <v>0.01757143884762186</v>
+        <v>0.02117730576767132</v>
       </c>
       <c r="T26">
-        <v>0.01757143884762186</v>
+        <v>0.02117730576767132</v>
       </c>
     </row>
   </sheetData>
